--- a/DataAnalysis/fileExcel/归属地.xlsx
+++ b/DataAnalysis/fileExcel/归属地.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac-pc/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac-pc/PycharmProjects/DataAnalysis/fileExcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14440" yWindow="780" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="8660" yWindow="1780" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="注册数量" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
   <si>
     <t>城市名称</t>
   </si>
@@ -87,9 +87,6 @@
     <t>沈阳市</t>
   </si>
   <si>
-    <t>长沙市</t>
-  </si>
-  <si>
     <t>大连市</t>
   </si>
   <si>
@@ -99,14 +96,14 @@
     <t>绑定数量</t>
   </si>
   <si>
-    <t>长春市</t>
+    <t>宁波市</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -116,22 +113,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="PingFang SC"/>
-      <family val="3"/>
+      <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="PingFang SC"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
@@ -158,9 +149,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -442,12 +432,12 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B21"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,168 +445,168 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="B2">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="B3">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="B4">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="B5">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="B6">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="B7">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="B8">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="B9">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="B13">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="B16">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="2">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+      <c r="B17">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="2">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+      <c r="B18">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="2">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="2">
-        <v>132</v>
+      <c r="B20">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -626,181 +616,181 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="2">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="2">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="2">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="2">
-        <v>89</v>
+      <c r="B21">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>